--- a/Stats file.xlsx
+++ b/Stats file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clement.galvier\OneDrive - VIRGIN ACTIVE SINGAPORE PTE LTD\Documents\GeneralAssembly\Homeworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginactiveasia-my.sharepoint.com/personal/clement_galvier_virginactive_com_sg/Documents/Documents/GeneralAssembly/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8D59F3-0A5E-4849-A7B7-1B0992F7A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{0A8D59F3-0A5E-4849-A7B7-1B0992F7A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F1AA9B-B0A4-4EE1-9152-F2C2CAD4A81F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3A9B28A9-AF98-4F6E-83AA-5EC5D61F3674}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3A9B28A9-AF98-4F6E-83AA-5EC5D61F3674}"/>
   </bookViews>
   <sheets>
     <sheet name="101 Concepts" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
   <si>
     <t>Chance events</t>
   </si>
@@ -409,15 +409,6 @@
     <t>3 - retro-fit the values</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>1 - We hypothesis that this model can be estimated using linear regression Y = aX +b</t>
   </si>
   <si>
@@ -434,6 +425,18 @@
   </si>
   <si>
     <t>Y = 85.3 + 10.8X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X est la variable aleatoire: elle prend le numbre de success: 0,1,2,3… </t>
+  </si>
+  <si>
+    <t>Distribution: toutes les valeurs qui peuvent etre prises par X. (sur -infini +infini pour certaines continuous variables)</t>
+  </si>
+  <si>
+    <t>When Outcome is BINARY</t>
+  </si>
+  <si>
+    <t>ONLY ONE THROW</t>
   </si>
 </sst>
 </file>
@@ -6604,10 +6607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022251B8-54B5-4876-B72A-CCA5BBABCE12}">
-  <dimension ref="B2:Q17"/>
+  <dimension ref="B2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6660,7 +6663,7 @@
       <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="P4" t="s">
@@ -6692,46 +6695,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6739,7 +6753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1851A7A-6452-4C3E-9FD0-44756A94826D}">
   <dimension ref="B3:Q90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
@@ -7051,7 +7065,7 @@
       </c>
       <c r="E58" s="34"/>
       <c r="K58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.3">
@@ -7081,20 +7095,20 @@
         <v>108</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L61" s="40">
         <f>I81/D81</f>
         <v>10.784313725490195</v>
       </c>
       <c r="N61" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.3">
@@ -7120,7 +7134,7 @@
         <v>658.82352941176464</v>
       </c>
       <c r="K62" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L62" s="42">
         <f>E79-(L61*D79)</f>
@@ -7203,7 +7217,7 @@
         <v>374.11764705882348</v>
       </c>
       <c r="K64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N64" s="10">
         <f t="shared" si="5"/>
@@ -7883,8 +7897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160CE7B3-1D73-4212-887C-4747E27EF753}">
   <dimension ref="B2:O126"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7897,9 +7911,15 @@
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="7:15" x14ac:dyDescent="0.3">
@@ -9325,7 +9345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D7B26-06E3-4D1F-840E-6B39D15B2B31}">
   <dimension ref="C2:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Stats file.xlsx
+++ b/Stats file.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginactiveasia-my.sharepoint.com/personal/clement_galvier_virginactive_com_sg/Documents/Documents/GeneralAssembly/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{0A8D59F3-0A5E-4849-A7B7-1B0992F7A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F1AA9B-B0A4-4EE1-9152-F2C2CAD4A81F}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{0A8D59F3-0A5E-4849-A7B7-1B0992F7A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37421796-F94D-4084-A90E-0986478F7D2A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3A9B28A9-AF98-4F6E-83AA-5EC5D61F3674}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{3A9B28A9-AF98-4F6E-83AA-5EC5D61F3674}"/>
   </bookViews>
   <sheets>
     <sheet name="101 Concepts" sheetId="2" r:id="rId1"/>
     <sheet name="Expected + Variance" sheetId="1" r:id="rId2"/>
     <sheet name="Lois Bernouilli + Binomiale" sheetId="3" r:id="rId3"/>
-    <sheet name="Loi de Poisson" sheetId="4" r:id="rId4"/>
-    <sheet name="Loi Normale" sheetId="5" r:id="rId5"/>
-    <sheet name="Lab1.2" sheetId="6" r:id="rId6"/>
-    <sheet name="Correlation" sheetId="7" r:id="rId7"/>
+    <sheet name="Confidence intervals" sheetId="9" r:id="rId4"/>
+    <sheet name="Loi de Poisson" sheetId="4" r:id="rId5"/>
+    <sheet name="Loi Normale" sheetId="5" r:id="rId6"/>
+    <sheet name="Lab1.2" sheetId="6" r:id="rId7"/>
+    <sheet name="Correlation" sheetId="7" r:id="rId8"/>
+    <sheet name="Log transformation" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Correlation!$D$4:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Correlation!$D$4:$E$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Log transformation'!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Log transformation'!$B$2:$B$77</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Log transformation'!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Log transformation'!$C$2:$C$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t>Chance events</t>
   </si>
@@ -438,6 +444,42 @@
   <si>
     <t>ONLY ONE THROW</t>
   </si>
+  <si>
+    <t>Is the confidence that your SAMPLE represents the POPULATION correctly</t>
+  </si>
+  <si>
+    <t>https://www.statisticshowto.com/probability-and-statistics/confidence-interval/</t>
+  </si>
+  <si>
+    <t>2 ways: theoretical way with z-score</t>
+  </si>
+  <si>
+    <t>bootstrap:</t>
+  </si>
+  <si>
+    <t>think about your onion</t>
+  </si>
+  <si>
+    <t>onion = full population = 1000 voters</t>
+  </si>
+  <si>
+    <t>1st layer is your sample = 50</t>
+  </si>
+  <si>
+    <t>we call this sample "new population"</t>
+  </si>
+  <si>
+    <t>we draw subsets from this "new population" WITH REPLACEMENT</t>
+  </si>
+  <si>
+    <t>we call these subsets k-statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula = </t>
+  </si>
+  <si>
+    <t>In Python:</t>
+  </si>
 </sst>
 </file>
 
@@ -4132,6 +4174,63 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{4AB4DEC0-706F-4038-A8F4-B234C66E9558}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>X</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C39C449D-6825-4158-B4B3-5A185B42FFF4}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Y</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4213,6 +4312,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5787,6 +5926,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -6136,6 +6783,143 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>384016</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>498117</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB96B9FE-F9ED-FA6F-902D-6332FF527A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260816" y="144780"/>
+          <a:ext cx="4381301" cy="4433835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>540377</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CC6D58-0CDC-FB62-FEB1-F5BC12EEA946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="3002280"/>
+          <a:ext cx="2902577" cy="870773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71946</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>140109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F58B3A2-EF05-7E42-6924-A7E0750A6DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="4968240"/>
+          <a:ext cx="6731826" cy="3584349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>277308</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -6269,7 +7053,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6305,6 +7089,133 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5D7F92-605B-0B37-6FA7-27C19CCC4940}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2674620" y="9239250"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-SG" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>84718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>118683</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B36070-CD85-E77A-2EA5-73E51306E520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="816238"/>
+          <a:ext cx="7319583" cy="4179815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7897,7 +8808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160CE7B3-1D73-4212-887C-4747E27EF753}">
   <dimension ref="B2:O126"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -9342,10 +10253,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2D8EDB-FA26-49E9-84E0-9F07AB147E00}">
+  <dimension ref="B2:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3A9F50BC-C6B2-4BD9-96BD-DC29049C2044}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D7B26-06E3-4D1F-840E-6B39D15B2B31}">
   <dimension ref="C2:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -9368,11 +10356,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24958431-2DAE-4568-A2E1-17BD559F84FE}">
   <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -9464,7 +10452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A8DA5A-8985-428C-A74B-2DF98ED01131}">
   <dimension ref="B2:I20"/>
   <sheetViews>
@@ -9652,12 +10640,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55217A6C-1C3D-4618-9210-05AA12FC341A}">
   <dimension ref="D1:T208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15495,4 +16483,1058 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D0D5CF-E892-434B-A87D-3537409B33F6}">
+  <dimension ref="B1:G77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>LOG(C2,10)</f>
+        <v>0.60205999132796229</v>
+      </c>
+      <c r="F2">
+        <f>LN(C2)</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="G2">
+        <f>LOG10(C2)</f>
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f>B2+0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">LOG(C3,10)</f>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f>B3+0.1</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>B4+0.1</f>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>B5+0.1</f>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>B6+0.1</f>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" ref="B8:B71" si="1">B7+0.1</f>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000011</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000012</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000012</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000013</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>2.6000000000000014</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000015</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000016</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000017</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000018</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>3.1000000000000019</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>3.200000000000002</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>3.300000000000002</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000021</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000022</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000023</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000024</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000025</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000026</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000027</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>4.1000000000000023</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>4.200000000000002</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000016</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999988</v>
+      </c>
+      <c r="C43">
+        <f>C32-1</f>
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999984</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:C77" si="2">C33-1</f>
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>5.299999999999998</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999977</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999973</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>5.599999999999997</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999966</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999963</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999959</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999956</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>6.0999999999999952</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.60205999132796229</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999948</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>6.2999999999999945</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999941</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999938</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999934</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>6.6999999999999931</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>6.7999999999999927</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999924</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>6.999999999999992</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>7.0999999999999917</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999913</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>7.2999999999999909</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999906</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999902</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D77" si="3">LOG(C67,10)</f>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999895</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>7.7999999999999892</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>7.8999999999999888</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <f t="shared" ref="B72:B77" si="4">B71+0.1</f>
+        <v>7.9999999999999885</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>8.099999999999989</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999886</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>8.2999999999999883</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999879</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>8.4999999999999876</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Stats file.xlsx
+++ b/Stats file.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginactiveasia-my.sharepoint.com/personal/clement_galvier_virginactive_com_sg/Documents/Documents/GeneralAssembly/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{0A8D59F3-0A5E-4849-A7B7-1B0992F7A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37421796-F94D-4084-A90E-0986478F7D2A}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{0A8D59F3-0A5E-4849-A7B7-1B0992F7A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F00C4F0-ADD9-4B52-AE7A-3CC550F40C17}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{3A9B28A9-AF98-4F6E-83AA-5EC5D61F3674}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{3A9B28A9-AF98-4F6E-83AA-5EC5D61F3674}"/>
   </bookViews>
   <sheets>
     <sheet name="101 Concepts" sheetId="2" r:id="rId1"/>
     <sheet name="Expected + Variance" sheetId="1" r:id="rId2"/>
     <sheet name="Lois Bernouilli + Binomiale" sheetId="3" r:id="rId3"/>
-    <sheet name="Confidence intervals" sheetId="9" r:id="rId4"/>
-    <sheet name="Loi de Poisson" sheetId="4" r:id="rId5"/>
-    <sheet name="Loi Normale" sheetId="5" r:id="rId6"/>
-    <sheet name="Lab1.2" sheetId="6" r:id="rId7"/>
-    <sheet name="Correlation" sheetId="7" r:id="rId8"/>
-    <sheet name="Log transformation" sheetId="8" r:id="rId9"/>
+    <sheet name="Loi de Poisson" sheetId="4" r:id="rId4"/>
+    <sheet name="Loi Normale" sheetId="5" r:id="rId5"/>
+    <sheet name="Lab1.2" sheetId="6" r:id="rId6"/>
+    <sheet name="Correlation" sheetId="7" r:id="rId7"/>
+    <sheet name="Log transformation" sheetId="8" r:id="rId8"/>
+    <sheet name="Confidence intervals" sheetId="9" r:id="rId9"/>
+    <sheet name="Hypothesis testing" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Correlation!$D$4:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Correlation!$D$4:$E$4</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Log transformation'!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Log transformation'!$B$2:$B$77</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Log transformation'!$C$1</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="151">
   <si>
     <t>Chance events</t>
   </si>
@@ -480,6 +481,193 @@
   <si>
     <t>In Python:</t>
   </si>
+  <si>
+    <t>Scipy is our friend</t>
+  </si>
+  <si>
+    <t>Define your matrices</t>
+  </si>
+  <si>
+    <r>
+      <t>X = houses[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'sqft'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'bedrooms'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'age'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># X is now a subset df with column, values from only these 3 cols</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = houses[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'price'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># y is now a series with only values from this 1 col</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X = sm.add_constant(X, prepend=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Add a column of ones to first col of X -&gt; print X to see. This is done to let statsmodels know that we want the intercept of linear equation (more details soon)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">results = sm.OLS(y, X).fit() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># OLS: ordinary least squares, fits a simple linear reg model with OLS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> scipy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> stats</t>
+    </r>
+  </si>
+  <si>
+    <t>Must compared our t-value ( t-statistic) vs our p-value</t>
+  </si>
 </sst>
 </file>
 
@@ -497,7 +685,7 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +730,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -600,7 +812,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -662,6 +874,12 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6783,6 +7001,311 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>277308</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9718841A-77D3-1B17-BB86-893E302A8542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277308" y="441960"/>
+          <a:ext cx="8379012" cy="3856863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170578</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B5BEAB-D3FC-C4FB-05D0-53D57E660F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327660" y="4511040"/>
+          <a:ext cx="8377318" cy="2596116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>368177</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18872DFF-092B-74C5-75F0-B765C8CF06C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7231380" y="906780"/>
+          <a:ext cx="8376797" cy="2899661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A16169-9F7F-88AC-74F4-C785E2B4ED9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5D7F92-605B-0B37-6FA7-27C19CCC4940}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2674620" y="9239250"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-SG" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>84718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>118683</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B36070-CD85-E77A-2EA5-73E51306E520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="816238"/>
+          <a:ext cx="7319583" cy="4179815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>384016</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -6916,27 +7439,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>277308</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>92583</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>122133</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9718841A-77D3-1B17-BB86-893E302A8542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86565335-26E6-EA44-4552-5A7DC8D596E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6952,8 +7475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="277308" y="441960"/>
-          <a:ext cx="8379012" cy="3856863"/>
+          <a:off x="609600" y="1714500"/>
+          <a:ext cx="13533333" cy="4847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6964,23 +7487,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>170578</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>157716</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>93562</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>18214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B5BEAB-D3FC-C4FB-05D0-53D57E660F90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B4459F-DAFD-A6AC-0E21-35649DD16478}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6996,8 +7519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="327660" y="4511040"/>
-          <a:ext cx="8377318" cy="2596116"/>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="13504762" cy="6685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7008,23 +7531,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>368177</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>148841</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>236419</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>8905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18872DFF-092B-74C5-75F0-B765C8CF06C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8488C1B-387F-F8A4-B990-6299FB74CC3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7040,8 +7563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7231380" y="906780"/>
-          <a:ext cx="8376797" cy="2899661"/>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="13647619" cy="4961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7050,149 +7573,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21465</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>107324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A16169-9F7F-88AC-74F4-C785E2B4ED9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5D7F92-605B-0B37-6FA7-27C19CCC4940}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2674620" y="9239250"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-SG" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>84718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>118683</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>58293</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>27407</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>53620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B36070-CD85-E77A-2EA5-73E51306E520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625200EB-E822-C48A-B2C8-A492B6E96CF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7201,15 +7600,103 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="816238"/>
-          <a:ext cx="7319583" cy="4179815"/>
+          <a:off x="633211" y="17987493"/>
+          <a:ext cx="13464365" cy="6332071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236113</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>21465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>378646</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>7653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607D1338-C40C-C5F7-F30C-3B12CED833A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847859" y="25382113"/>
+          <a:ext cx="8095238" cy="7466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>486657</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>122415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1A2A29-3443-556C-7A8B-49E74C6800E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223493" y="33206028"/>
+          <a:ext cx="13333333" cy="3771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7529,8 +8016,8 @@
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
@@ -7657,6 +8144,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1CDD24-DF10-4317-BDE0-E4DC145F1E02}">
+  <dimension ref="B2:D138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7670,7 +8212,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="13" width="11.77734375" customWidth="1"/>
+    <col min="11" max="13" width="11.6640625" customWidth="1"/>
     <col min="14" max="16" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8814,7 +9356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -10253,83 +10795,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2D8EDB-FA26-49E9-84E0-9F07AB147E00}">
-  <dimension ref="B2:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{3A9F50BC-C6B2-4BD9-96BD-DC29049C2044}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D7B26-06E3-4D1F-840E-6B39D15B2B31}">
   <dimension ref="C2:K2"/>
   <sheetViews>
@@ -10356,11 +10821,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24958431-2DAE-4568-A2E1-17BD559F84FE}">
   <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -10452,7 +10917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A8DA5A-8985-428C-A74B-2DF98ED01131}">
   <dimension ref="B2:I20"/>
   <sheetViews>
@@ -10640,7 +11105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55217A6C-1C3D-4618-9210-05AA12FC341A}">
   <dimension ref="D1:T208"/>
   <sheetViews>
@@ -10652,7 +11117,7 @@
   <cols>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:20" x14ac:dyDescent="0.3">
@@ -16485,7 +16950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D0D5CF-E892-434B-A87D-3537409B33F6}">
   <dimension ref="B1:G77"/>
   <sheetViews>
@@ -17537,4 +18002,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2D8EDB-FA26-49E9-84E0-9F07AB147E00}">
+  <dimension ref="B2:C27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3A9F50BC-C6B2-4BD9-96BD-DC29049C2044}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Stats file.xlsx
+++ b/Stats file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginactiveasia-my.sharepoint.com/personal/clement_galvier_virginactive_com_sg/Documents/Documents/GeneralAssembly/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{0A8D59F3-0A5E-4849-A7B7-1B0992F7A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F00C4F0-ADD9-4B52-AE7A-3CC550F40C17}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{0A8D59F3-0A5E-4849-A7B7-1B0992F7A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E6DF36-6FC5-4AD4-B160-CB259E516F9B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{3A9B28A9-AF98-4F6E-83AA-5EC5D61F3674}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{3A9B28A9-AF98-4F6E-83AA-5EC5D61F3674}"/>
   </bookViews>
   <sheets>
     <sheet name="101 Concepts" sheetId="2" r:id="rId1"/>
@@ -7172,6 +7172,94 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>369519</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E36DE5-B44D-3052-6104-F56C6C3F123D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7444740" y="1371600"/>
+          <a:ext cx="15647619" cy="1914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>474271</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>130453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9F81CB-167E-4529-0725-B86C647E15E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7368540" y="3352800"/>
+          <a:ext cx="15828571" cy="7933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8151,7 +8239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1CDD24-DF10-4317-BDE0-E4DC145F1E02}">
   <dimension ref="B2:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="A136" zoomScale="71" workbookViewId="0">
       <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
@@ -11109,8 +11197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55217A6C-1C3D-4618-9210-05AA12FC341A}">
   <dimension ref="D1:T208"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+      <selection activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16955,7 +17043,7 @@
   <dimension ref="B1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
